--- a/data/trans_orig/iP31B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP31B_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E172CC-93FB-4432-A4F1-9DA917FEB6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F66A336-5172-4412-9BE6-8D8F796EC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EBD747FF-6AAE-4B80-B950-A427FC3ABD97}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A70EF8FF-A482-4CBA-9DDD-8C5330112313}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -92,10 +92,10 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,10 +104,10 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,10 +122,10 @@
     <t>97,11%</t>
   </si>
   <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>3-7</t>
@@ -134,55 +134,55 @@
     <t>8,38%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>3,82%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>91,62%</t>
   </si>
   <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
   </si>
   <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -191,55 +191,55 @@
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>92,91%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -248,109 +248,109 @@
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>9,07%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
   </si>
   <si>
     <t>10,71%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>90,93%</t>
   </si>
   <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>89,29%</t>
   </si>
   <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>90,58%</t>
   </si>
   <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>91,22%</t>
   </si>
   <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A0F182B-1B0D-4E0B-A6F2-A75C7CAE1E2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FDD18D-6EA2-4049-8890-3AED7FB2C3D9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/iP31B_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP31B_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F66A336-5172-4412-9BE6-8D8F796EC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F23A9E99-543B-435F-ABB9-201904C7368C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A70EF8FF-A482-4CBA-9DDD-8C5330112313}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2666B45F-0102-4F9E-8E8E-F18E579F68C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
   <si>
-    <t>Menores según si realizan algún voluntariado en 2023 (Tasa respuesta: 96,25%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Menores que realizan algún voluntariado en alguna organización en 2023 (Tasa respuesta: 96,25%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,15 +71,6 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -89,27 +80,27 @@
     <t>2,34%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -119,238 +110,247 @@
     <t>100%</t>
   </si>
   <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -765,7 +765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FDD18D-6EA2-4049-8890-3AED7FB2C3D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F446FE-48AC-4A4A-9C00-94E21E155041}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -883,10 +883,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2519</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -898,10 +898,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>2464</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -916,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>2519</v>
+        <v>2464</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -934,10 +934,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7">
-        <v>39495</v>
+        <v>45279</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -949,10 +949,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>45058</v>
+        <v>41707</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -967,7 +967,7 @@
         <v>156</v>
       </c>
       <c r="N5" s="7">
-        <v>84554</v>
+        <v>86986</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -985,49 +985,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>81</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45279</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="7">
         <v>79</v>
       </c>
-      <c r="D6" s="7">
-        <v>42014</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>81</v>
-      </c>
       <c r="I6" s="7">
-        <v>45058</v>
+        <v>44171</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M6" s="7">
         <v>160</v>
       </c>
       <c r="N6" s="7">
-        <v>87073</v>
+        <v>89450</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1038,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>14646</v>
+        <v>5910</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1053,10 +1053,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>6026</v>
+        <v>14706</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1071,7 +1071,7 @@
         <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>20671</v>
+        <v>20616</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1089,10 +1089,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D8" s="7">
-        <v>160071</v>
+        <v>152485</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1104,10 +1104,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I8" s="7">
-        <v>151785</v>
+        <v>167253</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1122,7 +1122,7 @@
         <v>499</v>
       </c>
       <c r="N8" s="7">
-        <v>311857</v>
+        <v>319739</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1140,49 +1140,49 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>256</v>
+      </c>
+      <c r="D9" s="7">
+        <v>158395</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7">
-        <v>256</v>
-      </c>
       <c r="I9" s="7">
-        <v>157811</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M9" s="7">
         <v>531</v>
       </c>
       <c r="N9" s="7">
-        <v>332528</v>
+        <v>340355</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,10 +1193,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>14356</v>
+        <v>20433</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1208,10 +1208,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>21969</v>
+        <v>13923</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1226,7 +1226,7 @@
         <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>36325</v>
+        <v>34356</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1244,10 +1244,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>188122</v>
+        <v>152639</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1259,10 +1259,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="I11" s="7">
-        <v>154144</v>
+        <v>198567</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -1277,7 +1277,7 @@
         <v>433</v>
       </c>
       <c r="N11" s="7">
-        <v>342266</v>
+        <v>351207</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1295,49 +1295,49 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M12" s="7">
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,10 +1348,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>35119</v>
+        <v>21697</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1363,10 +1363,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>23534</v>
+        <v>34170</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1381,7 +1381,7 @@
         <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>58653</v>
+        <v>55867</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1399,10 +1399,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="D14" s="7">
-        <v>253097</v>
+        <v>252570</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1414,10 +1414,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="I14" s="7">
-        <v>235904</v>
+        <v>270020</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1432,7 +1432,7 @@
         <v>612</v>
       </c>
       <c r="N14" s="7">
-        <v>489001</v>
+        <v>522591</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1450,49 +1450,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>274267</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="7">
         <v>340</v>
       </c>
-      <c r="D15" s="7">
-        <v>288216</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="7">
-        <v>341</v>
-      </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304190</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M15" s="7">
         <v>681</v>
       </c>
       <c r="N15" s="7">
-        <v>547654</v>
+        <v>578458</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,10 +1503,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>66640</v>
+        <v>48040</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>87</v>
@@ -1518,10 +1518,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="I16" s="7">
-        <v>51528</v>
+        <v>65264</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -1536,7 +1536,7 @@
         <v>148</v>
       </c>
       <c r="N16" s="7">
-        <v>118169</v>
+        <v>113304</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -1554,10 +1554,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="D17" s="7">
-        <v>640786</v>
+        <v>602974</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>96</v>
@@ -1569,10 +1569,10 @@
         <v>98</v>
       </c>
       <c r="H17" s="7">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="I17" s="7">
-        <v>586892</v>
+        <v>677547</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>99</v>
@@ -1587,7 +1587,7 @@
         <v>1700</v>
       </c>
       <c r="N17" s="7">
-        <v>1227677</v>
+        <v>1280521</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -1605,49 +1605,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>911</v>
+      </c>
+      <c r="D18" s="7">
+        <v>651014</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="7">
         <v>937</v>
       </c>
-      <c r="D18" s="7">
-        <v>707426</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="7">
-        <v>911</v>
-      </c>
       <c r="I18" s="7">
-        <v>638420</v>
+        <v>742811</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M18" s="7">
         <v>1848</v>
       </c>
       <c r="N18" s="7">
-        <v>1345846</v>
+        <v>1393825</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
